--- a/Ocelot Team Matrix.xlsx
+++ b/Ocelot Team Matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\UW Docs\2020 Spring Software Dev QA\Team Ocelot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5163D0C3-4CFA-49E3-84FC-E5262A7B182D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDEC1D3-83E9-447E-8CC5-DF6125B8726B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{3A159C28-AF5E-4453-A61D-8DB18F801087}"/>
+    <workbookView xWindow="3708" yWindow="2772" windowWidth="17280" windowHeight="9420" xr2:uid="{3A159C28-AF5E-4453-A61D-8DB18F801087}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Team Member</t>
   </si>
@@ -90,14 +90,52 @@
   </si>
   <si>
     <t>Requirements</t>
+  </si>
+  <si>
+    <t>Deliverable 2</t>
+  </si>
+  <si>
+    <t>Data Iteration</t>
+  </si>
+  <si>
+    <t>Settings window</t>
+  </si>
+  <si>
+    <t>Upload Window</t>
+  </si>
+  <si>
+    <t>Import Window</t>
+  </si>
+  <si>
+    <t>Export Window</t>
+  </si>
+  <si>
+    <t>Diagrams &amp; System startup</t>
+  </si>
+  <si>
+    <t>Intro, cover, &amp; diagrams</t>
+  </si>
+  <si>
+    <t>Rationale Summary</t>
+  </si>
+  <si>
+    <t>User story sequences</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -125,8 +163,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CB2CEB-FF6A-4C93-9FEE-62CBD01F2735}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,23 +492,36 @@
     <col min="2" max="2" width="12.88671875" customWidth="1"/>
     <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -482,8 +534,14 @@
       <c r="D2" t="s">
         <v>10</v>
       </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -496,8 +554,14 @@
       <c r="D3" t="s">
         <v>11</v>
       </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -510,8 +574,14 @@
       <c r="D4" t="s">
         <v>13</v>
       </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -523,9 +593,16 @@
       </c>
       <c r="D5" t="s">
         <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Ocelot Team Matrix.xlsx
+++ b/Ocelot Team Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\UW Docs\2020 Spring Software Dev QA\Team Ocelot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CDEC1D3-83E9-447E-8CC5-DF6125B8726B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC8A8FF-801B-4A36-B515-73CDD36A20B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3708" yWindow="2772" windowWidth="17280" windowHeight="9420" xr2:uid="{3A159C28-AF5E-4453-A61D-8DB18F801087}"/>
+    <workbookView xWindow="1752" yWindow="3216" windowWidth="17280" windowHeight="9420" xr2:uid="{3A159C28-AF5E-4453-A61D-8DB18F801087}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Team Member</t>
   </si>
@@ -59,12 +59,6 @@
     <t>Meeting Roles</t>
   </si>
   <si>
-    <t>Facilitator</t>
-  </si>
-  <si>
-    <t>Minute Taker</t>
-  </si>
-  <si>
     <t>Home Window</t>
   </si>
   <si>
@@ -83,9 +77,6 @@
     <t>Prototypes</t>
   </si>
   <si>
-    <t>Collaborator</t>
-  </si>
-  <si>
     <t>User Stories</t>
   </si>
   <si>
@@ -120,6 +111,33 @@
   </si>
   <si>
     <t>User story sequences</t>
+  </si>
+  <si>
+    <t>Check-in 4</t>
+  </si>
+  <si>
+    <t>Complete upload functionality</t>
+  </si>
+  <si>
+    <t>Prepare checklist/help with replies</t>
+  </si>
+  <si>
+    <t>Construct post in thread/help with replies</t>
+  </si>
+  <si>
+    <t>Collaborator/minutes</t>
+  </si>
+  <si>
+    <t>Collaborator/facilitator</t>
+  </si>
+  <si>
+    <t>Facilitator/collaborator</t>
+  </si>
+  <si>
+    <t>Minute Taker/collaborator</t>
+  </si>
+  <si>
+    <t>Evaluate and reply to other posts</t>
   </si>
 </sst>
 </file>
@@ -482,18 +500,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CB2CEB-FF6A-4C93-9FEE-62CBD01F2735}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -507,15 +526,17 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -526,19 +547,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -546,19 +570,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
         <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -566,19 +593,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -586,19 +616,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Ocelot Team Matrix.xlsx
+++ b/Ocelot Team Matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\UW Docs\2020 Spring Software Dev QA\Team Ocelot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC8A8FF-801B-4A36-B515-73CDD36A20B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8536066C-0970-449A-8490-EE8791926622}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1752" yWindow="3216" windowWidth="17280" windowHeight="9420" xr2:uid="{3A159C28-AF5E-4453-A61D-8DB18F801087}"/>
+    <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{3A159C28-AF5E-4453-A61D-8DB18F801087}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Team Member</t>
   </si>
@@ -138,6 +138,36 @@
   </si>
   <si>
     <t>Evaluate and reply to other posts</t>
+  </si>
+  <si>
+    <t>Project Code</t>
+  </si>
+  <si>
+    <t>Deliverable 3</t>
+  </si>
+  <si>
+    <t>Cover, Intro, Table of Contents, Requirements Addressed, Emergency Contacts</t>
+  </si>
+  <si>
+    <t>How to Run the Application</t>
+  </si>
+  <si>
+    <t>Home/Upload JUnit Tests</t>
+  </si>
+  <si>
+    <t>Contributions, Room/Item Junit Tests, Emergency Contact</t>
+  </si>
+  <si>
+    <t>About Window, Home Window, Import Window</t>
+  </si>
+  <si>
+    <t>Room, UploadScreen, Authorization, Export Window, Launcher</t>
+  </si>
+  <si>
+    <t>Home Screen, Import/Export/Settings</t>
+  </si>
+  <si>
+    <t>UploadScreen, Item, Room List, VersionNumber</t>
   </si>
 </sst>
 </file>
@@ -500,19 +530,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CB2CEB-FF6A-4C93-9FEE-62CBD01F2735}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="56.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="70.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -537,8 +569,12 @@
       <c r="G1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
@@ -564,6 +600,12 @@
       <c r="G2" t="s">
         <v>28</v>
       </c>
+      <c r="H2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -587,6 +629,12 @@
       <c r="G3" t="s">
         <v>27</v>
       </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -610,6 +658,12 @@
       <c r="G4" t="s">
         <v>34</v>
       </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -632,6 +686,12 @@
       </c>
       <c r="G5" t="s">
         <v>29</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
